--- a/기능명세서_181107.xlsx
+++ b/기능명세서_181107.xlsx
@@ -424,10 +424,6 @@
   </si>
   <si>
     <t>combobox로 클릭 후 선택 삭제, 전체 삭제 클릭 시, 정상적으로 삭제 여부 확인 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원 위시리스트 서비스 이용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1158,12 +1154,16 @@
     <t>별점순 정렬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>비회원 위시리스트 서비스 이용(이거안함!!!!!!!!!!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,34 +1906,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1944,84 +2022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,7 +2329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2340,11 +2340,11 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C6"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -2359,39 +2359,39 @@
     <col min="12" max="12" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.4">
+      <c r="A1" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.6" thickBot="1">
-      <c r="A2" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102"/>
-    </row>
-    <row r="3" spans="1:12" ht="36.6" thickBot="1">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
+    </row>
+    <row r="3" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
@@ -2414,29 +2414,29 @@
         <v>17</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L3" s="68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="35.4" thickBot="1">
+    <row r="4" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="111" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2452,19 +2452,19 @@
         <v>62</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="35.4" thickBot="1">
+    <row r="5" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2478,19 +2478,19 @@
         <v>62</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" ht="105" thickBot="1">
+    <row r="6" spans="1:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="82"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
@@ -2498,27 +2498,27 @@
         <v>51</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="35.4" thickBot="1">
+    <row r="7" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2528,25 +2528,25 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="35.4" thickBot="1">
+    <row r="8" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="82"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2554,27 +2554,27 @@
         <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="87.6" thickBot="1">
+    <row r="9" spans="1:12" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="111" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2590,19 +2590,19 @@
         <v>64</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="35.4" thickBot="1">
+    <row r="10" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
@@ -2616,21 +2616,21 @@
         <v>64</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="117" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2646,21 +2646,21 @@
         <v>73</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="28">
         <v>9</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>74</v>
@@ -2672,21 +2672,21 @@
         <v>73</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>75</v>
@@ -2698,24 +2698,24 @@
         <v>73</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="16.8" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="28">
         <v>11</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>80</v>
@@ -2724,19 +2724,19 @@
         <v>73</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2750,21 +2750,21 @@
         <v>73</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2775,14 +2775,14 @@
       <c r="K16" s="18"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="28">
         <v>14</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="92"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2793,14 +2793,14 @@
       <c r="K17" s="18"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="92"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2811,14 +2811,14 @@
       <c r="K18" s="18"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="28">
         <v>16</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="92"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2829,14 +2829,14 @@
       <c r="K19" s="18"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28">
         <v>17</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2847,14 +2847,14 @@
       <c r="K20" s="18"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="27">
         <v>18</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2865,14 +2865,14 @@
       <c r="K21" s="18"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="28">
         <v>19</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2883,12 +2883,12 @@
       <c r="K22" s="18"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" ht="18" thickBot="1">
+    <row r="23" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2902,48 +2902,48 @@
         <v>73</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" s="119" customFormat="1" ht="35.4" thickBot="1">
+    <row r="24" spans="1:12" s="88" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="28">
         <v>21</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="114" t="s">
+      <c r="C24" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="115" t="s">
+      <c r="F24" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118"/>
-    </row>
-    <row r="25" spans="1:12" ht="18" thickBot="1">
+      <c r="H24" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="53" t="s">
         <v>22</v>
       </c>
@@ -2960,18 +2960,18 @@
         <v>57</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1">
+    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="27">
         <v>23</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="53" t="s">
         <v>58</v>
       </c>
@@ -2988,20 +2988,20 @@
         <v>57</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="18" thickBot="1">
+    <row r="27" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="28">
         <v>24</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
@@ -3016,48 +3016,48 @@
         <v>66</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" ht="52.8" thickBot="1">
+    <row r="28" spans="1:12" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="28">
         <v>25</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickBot="1">
+    <row r="29" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="28">
         <v>26</v>
       </c>
-      <c r="B29" s="84" t="s">
-        <v>201</v>
+      <c r="B29" s="89" t="s">
+        <v>200</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>40</v>
@@ -3072,18 +3072,18 @@
         <v>65</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
       <c r="K29" s="73"/>
       <c r="L29" s="74"/>
     </row>
-    <row r="30" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="30" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="28">
         <v>27</v>
       </c>
-      <c r="B30" s="85"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="75"/>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
@@ -3095,11 +3095,11 @@
       <c r="K30" s="76"/>
       <c r="L30" s="77"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="31" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="27">
         <v>28</v>
       </c>
-      <c r="B31" s="87"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="78"/>
       <c r="D31" s="76"/>
       <c r="E31" s="76"/>
@@ -3111,11 +3111,11 @@
       <c r="K31" s="79"/>
       <c r="L31" s="80"/>
     </row>
-    <row r="32" spans="1:12" ht="30.6" thickBot="1">
+    <row r="32" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="28">
         <v>29</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="55" t="s">
@@ -3131,12 +3131,12 @@
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:12" ht="35.4" thickBot="1">
+    <row r="33" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="28">
         <v>30</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="83" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="113" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3146,25 +3146,25 @@
         <v>27</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" ht="30.6" thickBot="1">
+    <row r="34" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="28">
         <v>31</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3172,24 +3172,24 @@
         <v>31</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="30.6" thickBot="1">
+    <row r="35" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="28">
         <v>32</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="103" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -3202,22 +3202,22 @@
         <v>32</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="48"/>
     </row>
-    <row r="36" spans="1:12" ht="34.799999999999997">
+    <row r="36" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="27">
         <v>33</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="57" t="s">
         <v>85</v>
       </c>
@@ -3232,23 +3232,23 @@
         <v>62</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" ht="69.599999999999994">
+    <row r="37" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A37" s="28">
         <v>34</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>86</v>
@@ -3260,23 +3260,23 @@
         <v>94</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="15"/>
     </row>
-    <row r="38" spans="1:12" ht="35.4" thickBot="1">
+    <row r="38" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="28">
         <v>35</v>
       </c>
-      <c r="B38" s="90"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>37</v>
@@ -3288,50 +3288,50 @@
         <v>88</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="87.6" thickBot="1">
+    <row r="39" spans="1:12" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="28">
         <v>36</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="89" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="35.4" thickBot="1">
+    <row r="40" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="28">
         <v>37</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="90"/>
       <c r="C40" s="57" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>90</v>
@@ -3339,25 +3339,25 @@
       <c r="E40" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="105" t="s">
-        <v>98</v>
-      </c>
       <c r="H40" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="35.4" thickBot="1">
+    <row r="41" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="27">
         <v>38</v>
       </c>
-      <c r="B41" s="87"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="54" t="s">
         <v>36</v>
       </c>
@@ -3367,28 +3367,28 @@
       <c r="E41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="102"/>
       <c r="G41" s="106"/>
       <c r="H41" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" ht="115.5" customHeight="1" thickBot="1">
+    <row r="42" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="28">
         <v>39</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="81" t="s">
-        <v>107</v>
+      <c r="C42" s="111" t="s">
+        <v>106</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>38</v>
@@ -3397,87 +3397,87 @@
         <v>95</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" ht="115.5" customHeight="1" thickBot="1">
+    <row r="43" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="28">
         <v>40</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="109" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>105</v>
-      </c>
       <c r="H43" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" ht="35.4" thickBot="1">
+    <row r="44" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="28">
         <v>41</v>
       </c>
-      <c r="B44" s="84" t="s">
-        <v>116</v>
+      <c r="B44" s="89" t="s">
+        <v>115</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="108"/>
       <c r="F44" s="110"/>
       <c r="G44" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="70.2" thickBot="1">
+    <row r="45" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="28">
         <v>42</v>
       </c>
-      <c r="B45" s="85"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="2"/>
@@ -3485,25 +3485,25 @@
       <c r="K45" s="2"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" ht="69.599999999999994">
+    <row r="46" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A46" s="27">
         <v>43</v>
       </c>
-      <c r="B46" s="85"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="G46" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="45"/>
       <c r="I46" s="2"/>
@@ -3511,25 +3511,25 @@
       <c r="K46" s="2"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="104.4">
+    <row r="47" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A47" s="28">
         <v>44</v>
       </c>
-      <c r="B47" s="85"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H47" s="45"/>
       <c r="I47" s="2"/>
@@ -3537,25 +3537,25 @@
       <c r="K47" s="2"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="18" thickBot="1">
+    <row r="48" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="28">
         <v>45</v>
       </c>
-      <c r="B48" s="87"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G48" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="45"/>
       <c r="I48" s="18"/>
@@ -3563,27 +3563,27 @@
       <c r="K48" s="18"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:12" ht="70.2" thickBot="1">
+    <row r="49" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="28">
         <v>46</v>
       </c>
       <c r="B49" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>145</v>
-      </c>
       <c r="D49" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="G49" s="46" t="s">
         <v>133</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>134</v>
       </c>
       <c r="H49" s="46"/>
       <c r="I49" s="22"/>
@@ -3591,27 +3591,27 @@
       <c r="K49" s="22"/>
       <c r="L49" s="41"/>
     </row>
-    <row r="50" spans="1:12" ht="139.80000000000001" thickBot="1">
+    <row r="50" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="28">
         <v>47</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="60" t="s">
-        <v>151</v>
-      </c>
       <c r="D50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="F50" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="G50" s="47" t="s">
         <v>148</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>149</v>
       </c>
       <c r="H50" s="47"/>
       <c r="I50" s="6"/>
@@ -3619,25 +3619,25 @@
       <c r="K50" s="6"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="104.4">
+    <row r="51" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A51" s="27">
         <v>48</v>
       </c>
-      <c r="B51" s="95"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="F51" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>154</v>
-      </c>
       <c r="G51" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H51" s="44"/>
       <c r="I51" s="2"/>
@@ -3645,23 +3645,23 @@
       <c r="K51" s="2"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="28">
         <v>49</v>
       </c>
-      <c r="B52" s="95"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H52" s="45"/>
       <c r="I52" s="2"/>
@@ -3669,25 +3669,25 @@
       <c r="K52" s="2"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="28">
         <v>50</v>
       </c>
-      <c r="B53" s="95"/>
+      <c r="B53" s="93"/>
       <c r="C53" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="23">
         <v>1</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H53" s="45"/>
       <c r="I53" s="2"/>
@@ -3695,25 +3695,25 @@
       <c r="K53" s="2"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="34.799999999999997">
+    <row r="54" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" s="28">
         <v>51</v>
       </c>
-      <c r="B54" s="95"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54" s="45"/>
       <c r="I54" s="2"/>
@@ -3721,25 +3721,25 @@
       <c r="K54" s="2"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="139.80000000000001" thickBot="1">
+    <row r="55" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="28">
         <v>52</v>
       </c>
-      <c r="B55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="G55" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H55" s="45"/>
       <c r="I55" s="18"/>
@@ -3747,27 +3747,27 @@
       <c r="K55" s="18"/>
       <c r="L55" s="21"/>
     </row>
-    <row r="56" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1">
+    <row r="56" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="27">
         <v>53</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H56" s="46"/>
       <c r="I56" s="22"/>
@@ -3775,27 +3775,27 @@
       <c r="K56" s="22"/>
       <c r="L56" s="41"/>
     </row>
-    <row r="57" spans="1:12" ht="139.80000000000001" thickBot="1">
+    <row r="57" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="28">
         <v>54</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="39" t="s">
         <v>180</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="39" t="s">
-        <v>181</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="22"/>
@@ -3803,57 +3803,57 @@
       <c r="K57" s="22"/>
       <c r="L57" s="41"/>
     </row>
-    <row r="58" spans="1:12" ht="157.19999999999999" thickBot="1">
+    <row r="58" spans="1:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="28">
         <v>55</v>
       </c>
       <c r="B58" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="59" t="s">
-        <v>185</v>
-      </c>
       <c r="D58" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="41"/>
     </row>
-    <row r="59" spans="1:12" ht="35.4" thickBot="1">
+    <row r="59" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="28">
         <v>56</v>
       </c>
       <c r="B59" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="63" t="s">
-        <v>190</v>
-      </c>
       <c r="D59" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="F59" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="43" t="s">
-        <v>188</v>
-      </c>
       <c r="G59" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H59" s="47"/>
       <c r="I59" s="34"/>
@@ -3861,26 +3861,34 @@
       <c r="K59" s="34"/>
       <c r="L59" s="37"/>
     </row>
-    <row r="60" spans="1:12" ht="35.4" thickBot="1">
+    <row r="60" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D60" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="F60" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>193</v>
-      </c>
       <c r="G60" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H60" s="35"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E62" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="C11:C23"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B50:B55"/>
     <mergeCell ref="A1:L1"/>
@@ -3897,14 +3905,6 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B11:B23"/>
-    <mergeCell ref="C11:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3920,29 +3920,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>

--- a/기능명세서_181107.xlsx
+++ b/기능명세서_181107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,6 @@
   </si>
   <si>
     <t>회원 위시리스트 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원 위시리스트 버튼 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1156,6 +1152,17 @@
   </si>
   <si>
     <t>비회원 위시리스트 서비스 이용(이거안함!!!!!!!!!!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상품번호가 해당 회원의 위시리스트에 추가되어있는지의 여부를 확인하는 메소드</t>
+  </si>
+  <si>
+    <t>비회원 위시리스트 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,8 +1257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1656,13 +1669,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1930,14 +1956,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1972,12 +2031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2002,26 +2055,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,7 +2373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2337,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2360,36 +2404,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="65" t="s">
@@ -2414,16 +2458,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L3" s="68" t="s">
         <v>5</v>
@@ -2433,10 +2477,10 @@
       <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="120" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -2452,7 +2496,7 @@
         <v>62</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2463,8 +2507,8 @@
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2522,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2489,8 +2533,8 @@
       <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
@@ -2498,13 +2542,13 @@
         <v>51</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2515,10 +2559,10 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -2528,13 +2572,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2545,8 +2589,8 @@
       <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="114"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2554,13 +2598,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2571,10 +2615,10 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2590,7 +2634,7 @@
         <v>64</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2601,8 +2645,8 @@
       <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
@@ -2616,7 +2660,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2627,10 +2671,10 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="100" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2646,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2657,10 +2701,10 @@
       <c r="A12" s="28">
         <v>9</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>74</v>
@@ -2672,7 +2716,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2683,10 +2727,10 @@
       <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>75</v>
@@ -2698,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2709,13 +2753,13 @@
       <c r="A14" s="28">
         <v>11</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>80</v>
@@ -2724,7 +2768,7 @@
         <v>73</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2735,8 +2779,8 @@
       <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2750,7 +2794,7 @@
         <v>73</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2761,10 +2805,10 @@
       <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2779,10 +2823,10 @@
       <c r="A17" s="28">
         <v>14</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2797,10 +2841,10 @@
       <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="118"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2815,10 +2859,10 @@
       <c r="A19" s="28">
         <v>16</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2833,10 +2877,10 @@
       <c r="A20" s="28">
         <v>17</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2851,10 +2895,10 @@
       <c r="A21" s="27">
         <v>18</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2869,10 +2913,10 @@
       <c r="A22" s="28">
         <v>19</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2887,8 +2931,8 @@
       <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="119"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2902,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2913,26 +2957,26 @@
       <c r="A24" s="28">
         <v>21</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="93" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="83" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="84" t="s">
         <v>73</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I24" s="86"/>
       <c r="J24" s="86"/>
@@ -2943,7 +2987,7 @@
       <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="B25" s="90"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="53" t="s">
         <v>22</v>
       </c>
@@ -2960,7 +3004,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2971,7 +3015,7 @@
       <c r="A26" s="27">
         <v>23</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="53" t="s">
         <v>58</v>
       </c>
@@ -2988,7 +3032,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2999,9 +3043,9 @@
       <c r="A27" s="28">
         <v>24</v>
       </c>
-      <c r="B27" s="90"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
@@ -3016,7 +3060,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3027,22 +3071,22 @@
       <c r="A28" s="28">
         <v>25</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3053,11 +3097,11 @@
       <c r="A29" s="28">
         <v>26</v>
       </c>
-      <c r="B29" s="89" t="s">
-        <v>200</v>
+      <c r="B29" s="93" t="s">
+        <v>199</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>40</v>
@@ -3072,7 +3116,7 @@
         <v>65</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
@@ -3083,7 +3127,7 @@
       <c r="A30" s="28">
         <v>27</v>
       </c>
-      <c r="B30" s="90"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="75"/>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
@@ -3099,7 +3143,7 @@
       <c r="A31" s="27">
         <v>28</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="78"/>
       <c r="D31" s="76"/>
       <c r="E31" s="76"/>
@@ -3115,7 +3159,7 @@
       <c r="A32" s="28">
         <v>29</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="93" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="55" t="s">
@@ -3135,8 +3179,8 @@
       <c r="A33" s="28">
         <v>30</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="113" t="s">
+      <c r="B33" s="94"/>
+      <c r="C33" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3146,13 +3190,13 @@
         <v>27</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3163,8 +3207,8 @@
       <c r="A34" s="28">
         <v>31</v>
       </c>
-      <c r="B34" s="115"/>
-      <c r="C34" s="114"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3172,13 +3216,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -3189,7 +3233,7 @@
       <c r="A35" s="28">
         <v>32</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="98" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -3202,11 +3246,11 @@
         <v>32</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -3217,7 +3261,7 @@
       <c r="A36" s="27">
         <v>33</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="57" t="s">
         <v>85</v>
       </c>
@@ -3232,7 +3276,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3243,12 +3287,12 @@
       <c r="A37" s="28">
         <v>34</v>
       </c>
-      <c r="B37" s="103"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>86</v>
@@ -3257,10 +3301,10 @@
         <v>87</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3271,12 +3315,12 @@
       <c r="A38" s="28">
         <v>35</v>
       </c>
-      <c r="B38" s="104"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>37</v>
@@ -3288,7 +3332,7 @@
         <v>88</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -3299,237 +3343,229 @@
       <c r="A39" s="28">
         <v>36</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="93" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="28">
         <v>37</v>
       </c>
-      <c r="B40" s="90"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="105" t="s">
-        <v>97</v>
-      </c>
       <c r="H40" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="27">
-        <v>38</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="24" t="s">
-        <v>206</v>
-      </c>
+    <row r="41" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="96"/>
+      <c r="C41" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="90"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="28">
-        <v>39</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="20" t="s">
+    <row r="42" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="27">
         <v>38</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="B42" s="96"/>
+      <c r="C42" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="113"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="28">
+        <v>39</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="28">
         <v>40</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="7" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="28">
+        <v>41</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="44" t="s">
+      <c r="E45" s="117"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="21"/>
-    </row>
-    <row r="44" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="28">
-        <v>41</v>
-      </c>
-      <c r="B44" s="89" t="s">
+      <c r="H45" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="28">
+        <v>42</v>
+      </c>
+      <c r="B46" s="94"/>
+      <c r="C46" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="E46" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="108"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="28">
-        <v>42</v>
-      </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A46" s="27">
-        <v>43</v>
-      </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" s="45"/>
+      <c r="G46" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="44"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A47" s="28">
-        <v>44</v>
-      </c>
-      <c r="B47" s="90"/>
+    <row r="47" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A47" s="27">
+        <v>43</v>
+      </c>
+      <c r="B47" s="94"/>
       <c r="C47" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="45"/>
       <c r="I47" s="2"/>
@@ -3537,133 +3573,135 @@
       <c r="K47" s="2"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A48" s="28">
+        <v>44</v>
+      </c>
+      <c r="B48" s="94"/>
+      <c r="C48" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="45"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="28">
         <v>45</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="B49" s="96"/>
+      <c r="C49" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="45"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="21"/>
+    </row>
+    <row r="50" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="28">
+        <v>46</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" s="45"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="21"/>
-    </row>
-    <row r="49" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="28">
-        <v>46</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="59" t="s">
+      <c r="E50" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="46"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="41"/>
+    </row>
+    <row r="51" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="28">
+        <v>47</v>
+      </c>
+      <c r="B51" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="41"/>
-    </row>
-    <row r="50" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="28">
-        <v>47</v>
-      </c>
-      <c r="B50" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="60" t="s">
+      <c r="E51" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="47"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A52" s="27">
+        <v>48</v>
+      </c>
+      <c r="B52" s="104"/>
+      <c r="C52" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D50" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A51" s="27">
-        <v>48</v>
-      </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="E52" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="F52" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="28">
-        <v>49</v>
-      </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="23" t="s">
+      <c r="G52" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H52" s="45"/>
+      <c r="H52" s="44"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3671,23 +3709,21 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="28">
-        <v>50</v>
-      </c>
-      <c r="B53" s="93"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="104"/>
       <c r="C53" s="61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="23">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" s="45"/>
       <c r="I53" s="2"/>
@@ -3695,25 +3731,25 @@
       <c r="K53" s="2"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="28">
-        <v>51</v>
-      </c>
-      <c r="B54" s="93"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="104"/>
       <c r="C54" s="61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>167</v>
+      <c r="F54" s="23">
+        <v>1</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H54" s="45"/>
       <c r="I54" s="2"/>
@@ -3721,166 +3757,208 @@
       <c r="K54" s="2"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A55" s="28">
+        <v>51</v>
+      </c>
+      <c r="B55" s="104"/>
+      <c r="C55" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="45"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="28">
         <v>52</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B56" s="105"/>
+      <c r="C56" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="G56" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="21"/>
+    </row>
+    <row r="57" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="27">
+        <v>53</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="21"/>
-    </row>
-    <row r="56" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="27">
-        <v>53</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="41"/>
-    </row>
-    <row r="57" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="28">
-        <v>54</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" s="39" t="s">
+      <c r="F57" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="H57" s="39"/>
+      <c r="G57" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="46"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
       <c r="L57" s="41"/>
     </row>
-    <row r="58" spans="1:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="28">
-        <v>55</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>183</v>
+        <v>54</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D58" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="22" t="s">
-        <v>178</v>
-      </c>
       <c r="F58" s="43" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>208</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="H58" s="39"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="41"/>
     </row>
-    <row r="59" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="28">
+        <v>55</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="41"/>
+    </row>
+    <row r="60" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="28">
         <v>56</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B60" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="D60" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="37"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D61" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D59" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="47" t="s">
+      <c r="E61" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="H59" s="47"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="37"/>
-    </row>
-    <row r="60" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="H60" s="35"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E62" s="64"/>
+      <c r="H61" s="35"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E63" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -3889,22 +3967,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B11:B23"/>
     <mergeCell ref="C11:C23"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기능명세서_181107.xlsx
+++ b/기능명세서_181107.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="227">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,11 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위시리스트 페이지에서 항목 선택 후
-삭제 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제 전 상품 정보, 배송지, 결제 정보 담긴 페이지 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +463,6 @@
   </si>
   <si>
     <t>cart page -&gt; order page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원, 비회원 상품 주문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,10 +732,6 @@
   <si>
     <t>상품 상세
 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product page에서 상품 클릭 시, 상품 상세 페이지 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1163,6 +1150,23 @@
   </si>
   <si>
     <t>37 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product page에서 상품 클릭 시, 상품 상세 페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원, 비회원 상품 주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 자기상품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위시리스트 페이지에서 항목 선택 후
+삭제 버튼 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,7 +1268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1682,13 +1686,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1962,31 +1977,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1998,74 +2091,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2373,7 +2403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2381,11 +2411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2404,36 +2434,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
+      <c r="A1" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:12" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="A2" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="65" t="s">
@@ -2458,16 +2488,16 @@
         <v>17</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L3" s="68" t="s">
         <v>5</v>
@@ -2477,7 +2507,7 @@
       <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="120" t="s">
@@ -2496,7 +2526,7 @@
         <v>62</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -2507,8 +2537,8 @@
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2522,7 +2552,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2533,8 +2563,8 @@
       <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
@@ -2542,13 +2572,13 @@
         <v>51</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2559,7 +2589,7 @@
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="120" t="s">
@@ -2572,13 +2602,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2589,8 +2619,8 @@
       <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2598,13 +2628,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2615,7 +2645,7 @@
       <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="96" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="120" t="s">
@@ -2634,7 +2664,7 @@
         <v>64</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2645,8 +2675,8 @@
       <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
@@ -2660,7 +2690,7 @@
         <v>64</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2671,10 +2701,10 @@
       <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="126" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2690,7 +2720,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2701,10 +2731,10 @@
       <c r="A12" s="28">
         <v>9</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>74</v>
@@ -2716,7 +2746,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2727,10 +2757,10 @@
       <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>75</v>
@@ -2742,7 +2772,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2753,13 +2783,13 @@
       <c r="A14" s="28">
         <v>11</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>80</v>
@@ -2768,7 +2798,7 @@
         <v>73</v>
       </c>
       <c r="H14" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2779,8 +2809,8 @@
       <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
@@ -2794,7 +2824,7 @@
         <v>73</v>
       </c>
       <c r="H15" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2805,10 +2835,10 @@
       <c r="A16" s="27">
         <v>13</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="71" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2823,10 +2853,10 @@
       <c r="A17" s="28">
         <v>14</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="101"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2841,10 +2871,10 @@
       <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2859,10 +2889,10 @@
       <c r="A19" s="28">
         <v>16</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2877,10 +2907,10 @@
       <c r="A20" s="28">
         <v>17</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2895,10 +2925,10 @@
       <c r="A21" s="27">
         <v>18</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2913,10 +2943,10 @@
       <c r="A22" s="28">
         <v>19</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="71" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2931,8 +2961,8 @@
       <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="102"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>73</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2957,26 +2987,26 @@
       <c r="A24" s="28">
         <v>21</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="96" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E24" s="83" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" s="84" t="s">
         <v>73</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I24" s="86"/>
       <c r="J24" s="86"/>
@@ -2987,7 +3017,7 @@
       <c r="A25" s="28">
         <v>22</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="53" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +3034,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3015,7 +3045,7 @@
       <c r="A26" s="27">
         <v>23</v>
       </c>
-      <c r="B26" s="94"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="53" t="s">
         <v>58</v>
       </c>
@@ -3032,7 +3062,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3043,9 +3073,9 @@
       <c r="A27" s="28">
         <v>24</v>
       </c>
-      <c r="B27" s="94"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>23</v>
@@ -3060,7 +3090,7 @@
         <v>66</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3071,22 +3101,22 @@
       <c r="A28" s="28">
         <v>25</v>
       </c>
-      <c r="B28" s="96"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -3097,11 +3127,11 @@
       <c r="A29" s="28">
         <v>26</v>
       </c>
-      <c r="B29" s="93" t="s">
-        <v>199</v>
+      <c r="B29" s="96" t="s">
+        <v>196</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>40</v>
@@ -3116,7 +3146,7 @@
         <v>65</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
@@ -3127,7 +3157,7 @@
       <c r="A30" s="28">
         <v>27</v>
       </c>
-      <c r="B30" s="94"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="75"/>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
@@ -3143,7 +3173,7 @@
       <c r="A31" s="27">
         <v>28</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="78"/>
       <c r="D31" s="76"/>
       <c r="E31" s="76"/>
@@ -3159,7 +3189,7 @@
       <c r="A32" s="28">
         <v>29</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="96" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="55" t="s">
@@ -3179,8 +3209,8 @@
       <c r="A33" s="28">
         <v>30</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="91" t="s">
+      <c r="B33" s="97"/>
+      <c r="C33" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -3190,13 +3220,13 @@
         <v>27</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3207,8 +3237,8 @@
       <c r="A34" s="28">
         <v>31</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3216,13 +3246,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -3233,7 +3263,7 @@
       <c r="A35" s="28">
         <v>32</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="111" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="56" t="s">
@@ -3246,11 +3276,11 @@
         <v>32</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
@@ -3261,7 +3291,7 @@
       <c r="A36" s="27">
         <v>33</v>
       </c>
-      <c r="B36" s="98"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="57" t="s">
         <v>85</v>
       </c>
@@ -3276,7 +3306,7 @@
         <v>62</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3287,7 +3317,7 @@
       <c r="A37" s="28">
         <v>34</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="53" t="s">
         <v>34</v>
       </c>
@@ -3304,7 +3334,7 @@
         <v>93</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3315,9 +3345,9 @@
       <c r="A38" s="28">
         <v>35</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>100</v>
@@ -3332,7 +3362,7 @@
         <v>88</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -3343,26 +3373,26 @@
       <c r="A39" s="28">
         <v>36</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="96" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -3373,9 +3403,9 @@
       <c r="A40" s="28">
         <v>37</v>
       </c>
-      <c r="B40" s="94"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="57" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>90</v>
@@ -3383,14 +3413,14 @@
       <c r="E40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="114" t="s">
+      <c r="G40" s="113" t="s">
         <v>96</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3398,17 +3428,17 @@
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="122" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="125" t="s">
-        <v>223</v>
+      <c r="A41" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="98"/>
+      <c r="C41" s="95" t="s">
+        <v>220</v>
       </c>
       <c r="D41" s="90"/>
       <c r="E41" s="89"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="124"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="24"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -3419,38 +3449,38 @@
       <c r="A42" s="27">
         <v>38</v>
       </c>
-      <c r="B42" s="96"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="113"/>
+      <c r="F42" s="110"/>
       <c r="G42" s="115"/>
       <c r="H42" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="28">
         <v>39</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="96" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="120" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>38</v>
@@ -3462,7 +3492,7 @@
         <v>97</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -3470,128 +3500,118 @@
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="28">
+      <c r="A44" s="28"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="130"/>
+    </row>
+    <row r="45" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="28">
         <v>40</v>
       </c>
-      <c r="B44" s="96"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="116" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="44" t="s">
+      <c r="H45" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="28">
+        <v>41</v>
+      </c>
+      <c r="B46" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="117"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="21"/>
-    </row>
-    <row r="45" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="28">
-        <v>41</v>
-      </c>
-      <c r="B45" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="55" t="s">
+      <c r="H46" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="28">
+        <v>42</v>
+      </c>
+      <c r="B47" s="97"/>
+      <c r="C47" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="117"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="28">
-        <v>42</v>
-      </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A47" s="27">
-        <v>43</v>
-      </c>
-      <c r="B47" s="94"/>
-      <c r="C47" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="45"/>
+      <c r="F47" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="44"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A48" s="28">
-        <v>44</v>
-      </c>
-      <c r="B48" s="94"/>
+    <row r="48" spans="1:12" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A48" s="27">
+        <v>43</v>
+      </c>
+      <c r="B48" s="97"/>
       <c r="C48" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H48" s="45"/>
       <c r="I48" s="2"/>
@@ -3599,133 +3619,135 @@
       <c r="K48" s="2"/>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A49" s="28">
+        <v>44</v>
+      </c>
+      <c r="B49" s="97"/>
+      <c r="C49" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="45"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="45" t="s">
+      <c r="B50" s="98"/>
+      <c r="C50" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="28">
+      <c r="G50" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="45"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="21"/>
+    </row>
+    <row r="51" spans="1:12" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="28">
         <v>46</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B51" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" s="46"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="41"/>
+    </row>
+    <row r="52" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="28">
+        <v>47</v>
+      </c>
+      <c r="B52" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="E52" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="41"/>
-    </row>
-    <row r="51" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="28">
-        <v>47</v>
-      </c>
-      <c r="B51" s="103" t="s">
+      <c r="F52" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="47"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A53" s="27">
+        <v>48</v>
+      </c>
+      <c r="B53" s="100"/>
+      <c r="C53" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="F53" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="H51" s="47"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A52" s="27">
-        <v>48</v>
-      </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="31" t="s">
+      <c r="G53" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="15"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="28">
-        <v>49</v>
-      </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H53" s="45"/>
+      <c r="H53" s="44"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3733,23 +3755,21 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="28">
-        <v>50</v>
-      </c>
-      <c r="B54" s="104"/>
+        <v>49</v>
+      </c>
+      <c r="B54" s="100"/>
       <c r="C54" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E54" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54" s="23">
-        <v>1</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H54" s="45"/>
       <c r="I54" s="2"/>
@@ -3757,25 +3777,25 @@
       <c r="K54" s="2"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="28">
-        <v>51</v>
-      </c>
-      <c r="B55" s="104"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="100"/>
       <c r="C55" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E55" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="F55" s="23">
+        <v>1</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H55" s="45"/>
       <c r="I55" s="2"/>
@@ -3783,182 +3803,192 @@
       <c r="K55" s="2"/>
       <c r="L55" s="15"/>
     </row>
-    <row r="56" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" s="28">
+        <v>51</v>
+      </c>
+      <c r="B56" s="100"/>
+      <c r="C56" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="28">
         <v>52</v>
       </c>
-      <c r="B56" s="105"/>
-      <c r="C56" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B57" s="101"/>
+      <c r="C57" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" s="45"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="27">
+        <v>53</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="21"/>
-    </row>
-    <row r="57" spans="1:12" ht="198" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="27">
-        <v>53</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="32" t="s">
+      <c r="C58" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" s="46"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="41"/>
-    </row>
-    <row r="58" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="28">
-        <v>54</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="39"/>
+      <c r="F58" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" s="46"/>
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
       <c r="L58" s="41"/>
     </row>
-    <row r="59" spans="1:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="139.80000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="28">
-        <v>55</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>182</v>
+        <v>54</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>207</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H59" s="39"/>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
       <c r="L59" s="41"/>
     </row>
-    <row r="60" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="28">
+        <v>55</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="28">
         <v>56</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B61" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" s="47"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="37"/>
+    </row>
+    <row r="62" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="F62" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="37"/>
-    </row>
-    <row r="61" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="F61" s="42" t="s">
+      <c r="G62" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="G61" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="H61" s="35"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E63" s="64"/>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E64" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -3967,6 +3997,22 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B11:B23"/>
     <mergeCell ref="C11:C23"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
